--- a/Estimate_Gflex Device 032203010_NR_FR1 TDD n41   n90_Blind Scan SCS Autodetect.xlsx
+++ b/Estimate_Gflex Device 032203010_NR_FR1 TDD n41   n90_Blind Scan SCS Autodetect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitProjects\BTS_Location_Estimation_C#\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F3CCAAF-B36D-4B90-85AC-98919822BEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D5A827D-D77E-46AC-A332-B875B2AAF53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{6AE0177B-32BE-4F89-AF61-A5766F78DCF1}"/>
+    <workbookView xWindow="3735" yWindow="2595" windowWidth="21600" windowHeight="12645" xr2:uid="{471D8DC8-4995-48AC-8069-DC2749F30D9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimate_Gflex Device 032203010" sheetId="1" r:id="rId1"/>
@@ -106,6 +106,9 @@
     <t>310;311/310;311/310;311</t>
   </si>
   <si>
+    <t>Low</t>
+  </si>
+  <si>
     <t>369/38</t>
   </si>
   <si>
@@ -119,9 +122,6 @@
   </si>
   <si>
     <t>310;311/310;311</t>
-  </si>
-  <si>
-    <t>Low</t>
   </si>
   <si>
     <t>657/70</t>
@@ -1101,7 +1101,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0449DC85-1CB7-43BE-9826-C3D0350560EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DC04C5-409C-4441-93E8-FA720AD46025}">
   <dimension ref="A1:R87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1211,7 +1211,7 @@
         <v>-77.121865999999997</v>
       </c>
       <c r="P2">
-        <v>32.21</v>
+        <v>15.89</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1267,7 +1267,7 @@
         <v>-77.121668999999997</v>
       </c>
       <c r="P3">
-        <v>32.21</v>
+        <v>15.89</v>
       </c>
       <c r="Q3">
         <v>23</v>
@@ -1323,7 +1323,7 @@
         <v>-77.119274000000004</v>
       </c>
       <c r="P4">
-        <v>15.74</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="Q4">
         <v>11</v>
@@ -1379,7 +1379,7 @@
         <v>-77.123868000000002</v>
       </c>
       <c r="P5">
-        <v>22.76</v>
+        <v>15.83</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -1435,13 +1435,13 @@
         <v>-77.153898999999996</v>
       </c>
       <c r="P6">
-        <v>17.89</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="Q6">
         <v>7</v>
       </c>
       <c r="R6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1449,22 +1449,22 @@
         <v>502110</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1491,13 +1491,13 @@
         <v>-77.149191999999999</v>
       </c>
       <c r="P7">
-        <v>27.52</v>
+        <v>12.67</v>
       </c>
       <c r="Q7">
         <v>13</v>
       </c>
       <c r="R7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -1547,13 +1547,13 @@
         <v>-77.144485000000003</v>
       </c>
       <c r="P8">
-        <v>27.52</v>
+        <v>12.67</v>
       </c>
       <c r="Q8">
         <v>6</v>
       </c>
       <c r="R8" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1603,13 +1603,13 @@
         <v>-77.161351999999994</v>
       </c>
       <c r="P9">
-        <v>8.5</v>
+        <v>4.92</v>
       </c>
       <c r="Q9">
         <v>7</v>
       </c>
       <c r="R9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1659,13 +1659,13 @@
         <v>-77.158090000000001</v>
       </c>
       <c r="P10">
-        <v>24.1</v>
+        <v>10.96</v>
       </c>
       <c r="Q10">
         <v>6</v>
       </c>
       <c r="R10" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1715,13 +1715,13 @@
         <v>-77.168670000000006</v>
       </c>
       <c r="P11">
-        <v>10.44</v>
+        <v>6.26</v>
       </c>
       <c r="Q11">
         <v>7</v>
       </c>
       <c r="R11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -1732,7 +1732,7 @@
         <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -1741,10 +1741,10 @@
         <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1771,13 +1771,13 @@
         <v>-77.160413000000005</v>
       </c>
       <c r="P12">
-        <v>14.04</v>
+        <v>8.77</v>
       </c>
       <c r="Q12">
         <v>12</v>
       </c>
       <c r="R12" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -1827,13 +1827,13 @@
         <v>-77.152156000000005</v>
       </c>
       <c r="P13">
-        <v>14.04</v>
+        <v>8.77</v>
       </c>
       <c r="Q13">
         <v>5</v>
       </c>
       <c r="R13" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -1883,13 +1883,13 @@
         <v>-77.135869999999997</v>
       </c>
       <c r="P14">
-        <v>20.52</v>
+        <v>12.21</v>
       </c>
       <c r="Q14">
         <v>4</v>
       </c>
       <c r="R14" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -1939,13 +1939,13 @@
         <v>-77.072109999999995</v>
       </c>
       <c r="P15">
-        <v>32.659999999999997</v>
+        <v>23.98</v>
       </c>
       <c r="Q15">
         <v>15</v>
       </c>
       <c r="R15" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -1995,13 +1995,13 @@
         <v>-77.065022999999997</v>
       </c>
       <c r="P16">
-        <v>24.21</v>
+        <v>10.98</v>
       </c>
       <c r="Q16">
         <v>7</v>
       </c>
       <c r="R16" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -2051,7 +2051,7 @@
         <v>-77.015438000000003</v>
       </c>
       <c r="P17">
-        <v>32.659999999999997</v>
+        <v>23.98</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -2107,7 +2107,7 @@
         <v>-77.121769</v>
       </c>
       <c r="P18">
-        <v>21.11</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="Q18">
         <v>12</v>
@@ -2124,7 +2124,7 @@
         <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
         <v>24</v>
@@ -2133,10 +2133,10 @@
         <v>39</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2163,7 +2163,7 @@
         <v>-77.126557000000005</v>
       </c>
       <c r="P19">
-        <v>21.11</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="Q19">
         <v>23</v>
@@ -2219,7 +2219,7 @@
         <v>-77.131345999999994</v>
       </c>
       <c r="P20">
-        <v>19.73</v>
+        <v>9.06</v>
       </c>
       <c r="Q20">
         <v>11</v>
@@ -2275,13 +2275,13 @@
         <v>-77.268501000000001</v>
       </c>
       <c r="P21">
-        <v>10.92</v>
+        <v>7.33</v>
       </c>
       <c r="Q21">
         <v>7</v>
       </c>
       <c r="R21" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -2292,7 +2292,7 @@
         <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
         <v>24</v>
@@ -2301,10 +2301,10 @@
         <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2331,13 +2331,13 @@
         <v>-77.247733999999994</v>
       </c>
       <c r="P22">
-        <v>22.27</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="Q22">
         <v>16</v>
       </c>
       <c r="R22" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -2387,7 +2387,7 @@
         <v>-77.226966000000004</v>
       </c>
       <c r="P23">
-        <v>22.27</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -2443,13 +2443,13 @@
         <v>-77.158430999999993</v>
       </c>
       <c r="P24">
-        <v>14.87</v>
+        <v>10.29</v>
       </c>
       <c r="Q24">
         <v>4</v>
       </c>
       <c r="R24" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -2499,13 +2499,13 @@
         <v>-77.204943</v>
       </c>
       <c r="P25">
-        <v>20.98</v>
+        <v>11.64</v>
       </c>
       <c r="Q25">
         <v>4</v>
       </c>
       <c r="R25" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
@@ -2555,7 +2555,7 @@
         <v>-77.178759999999997</v>
       </c>
       <c r="P26">
-        <v>19.670000000000002</v>
+        <v>13.34</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -2572,7 +2572,7 @@
         <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D27" t="s">
         <v>24</v>
@@ -2581,10 +2581,10 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>-77.220671999999993</v>
       </c>
       <c r="P27">
-        <v>25.81</v>
+        <v>15.39</v>
       </c>
       <c r="Q27">
         <v>11</v>
@@ -2667,7 +2667,7 @@
         <v>-77.262584000000004</v>
       </c>
       <c r="P28">
-        <v>25.81</v>
+        <v>15.39</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -2723,7 +2723,7 @@
         <v>-77.163234000000003</v>
       </c>
       <c r="P29">
-        <v>16.11</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="Q29">
         <v>12</v>
@@ -2779,13 +2779,13 @@
         <v>-77.319481999999994</v>
       </c>
       <c r="P30">
-        <v>13.19</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="Q30">
         <v>5</v>
       </c>
       <c r="R30" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
@@ -2796,7 +2796,7 @@
         <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D31" t="s">
         <v>24</v>
@@ -2805,10 +2805,10 @@
         <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -2835,13 +2835,13 @@
         <v>-77.305435000000003</v>
       </c>
       <c r="P31">
-        <v>20.99</v>
+        <v>13.77</v>
       </c>
       <c r="Q31">
         <v>11</v>
       </c>
       <c r="R31" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
@@ -2891,7 +2891,7 @@
         <v>-77.291388999999995</v>
       </c>
       <c r="P32">
-        <v>20.99</v>
+        <v>13.77</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -2947,7 +2947,7 @@
         <v>-77.270290000000003</v>
       </c>
       <c r="P33">
-        <v>20.57</v>
+        <v>14.91</v>
       </c>
       <c r="Q33">
         <v>8</v>
@@ -2964,7 +2964,7 @@
         <v>46</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D34" t="s">
         <v>24</v>
@@ -2973,10 +2973,10 @@
         <v>47</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>-77.276910000000001</v>
       </c>
       <c r="P34">
-        <v>22.05</v>
+        <v>14.91</v>
       </c>
       <c r="Q34">
         <v>18</v>
@@ -3059,7 +3059,7 @@
         <v>-77.283530999999996</v>
       </c>
       <c r="P35">
-        <v>22.05</v>
+        <v>8.02</v>
       </c>
       <c r="Q35">
         <v>10</v>
@@ -3115,7 +3115,7 @@
         <v>-77.173005000000003</v>
       </c>
       <c r="P36">
-        <v>17.989999999999998</v>
+        <v>8.02</v>
       </c>
       <c r="Q36">
         <v>9</v>
@@ -3171,7 +3171,7 @@
         <v>-77.283154999999994</v>
       </c>
       <c r="P37">
-        <v>34.43</v>
+        <v>21.78</v>
       </c>
       <c r="Q37">
         <v>10</v>
@@ -3188,7 +3188,7 @@
         <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D38" t="s">
         <v>24</v>
@@ -3197,10 +3197,10 @@
         <v>49</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3227,7 +3227,7 @@
         <v>-77.282415</v>
       </c>
       <c r="P38">
-        <v>34.43</v>
+        <v>21.78</v>
       </c>
       <c r="Q38">
         <v>15</v>
@@ -3283,7 +3283,7 @@
         <v>-77.281676000000004</v>
       </c>
       <c r="P39">
-        <v>22.25</v>
+        <v>15.04</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -3339,13 +3339,13 @@
         <v>-77.240178999999998</v>
       </c>
       <c r="P40">
-        <v>7.63</v>
+        <v>6.45</v>
       </c>
       <c r="Q40">
         <v>4</v>
       </c>
       <c r="R40" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
@@ -3395,13 +3395,13 @@
         <v>-77.243148000000005</v>
       </c>
       <c r="P41">
-        <v>17.45</v>
+        <v>9.5299999999999994</v>
       </c>
       <c r="Q41">
         <v>6</v>
       </c>
       <c r="R41" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
@@ -3451,13 +3451,13 @@
         <v>-77.141420999999994</v>
       </c>
       <c r="P42">
-        <v>7.46</v>
+        <v>5.17</v>
       </c>
       <c r="Q42">
         <v>4</v>
       </c>
       <c r="R42" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
@@ -3468,7 +3468,7 @@
         <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D43" t="s">
         <v>24</v>
@@ -3477,10 +3477,10 @@
         <v>51</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -3507,13 +3507,13 @@
         <v>-77.142097000000007</v>
       </c>
       <c r="P43">
-        <v>16.100000000000001</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="Q43">
         <v>8</v>
       </c>
       <c r="R43" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
@@ -3563,13 +3563,13 @@
         <v>-77.142773000000005</v>
       </c>
       <c r="P44">
-        <v>16.100000000000001</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="Q44">
         <v>4</v>
       </c>
       <c r="R44" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
@@ -3619,7 +3619,7 @@
         <v>-77.121679999999998</v>
       </c>
       <c r="P45">
-        <v>23.14</v>
+        <v>15.24</v>
       </c>
       <c r="Q45">
         <v>7</v>
@@ -3675,7 +3675,7 @@
         <v>-77.122696000000005</v>
       </c>
       <c r="P46">
-        <v>25.71</v>
+        <v>15.24</v>
       </c>
       <c r="Q46">
         <v>24</v>
@@ -3731,7 +3731,7 @@
         <v>-77.120716999999999</v>
       </c>
       <c r="P47">
-        <v>16.77</v>
+        <v>8.26</v>
       </c>
       <c r="Q47">
         <v>10</v>
@@ -3787,7 +3787,7 @@
         <v>-77.125690000000006</v>
       </c>
       <c r="P48">
-        <v>25.71</v>
+        <v>14.72</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -3843,13 +3843,13 @@
         <v>-77.153154999999998</v>
       </c>
       <c r="P49">
-        <v>17.899999999999999</v>
+        <v>10.18</v>
       </c>
       <c r="Q49">
         <v>7</v>
       </c>
       <c r="R49" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
@@ -3899,13 +3899,13 @@
         <v>-77.143027000000004</v>
       </c>
       <c r="P50">
-        <v>25.06</v>
+        <v>14.65</v>
       </c>
       <c r="Q50">
         <v>21</v>
       </c>
       <c r="R50" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
@@ -3955,7 +3955,7 @@
         <v>-77.120931999999996</v>
       </c>
       <c r="P51">
-        <v>25.06</v>
+        <v>14.65</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -4011,13 +4011,13 @@
         <v>-77.154993000000005</v>
       </c>
       <c r="P52">
-        <v>16.5</v>
+        <v>9.7100000000000009</v>
       </c>
       <c r="Q52">
         <v>6</v>
       </c>
       <c r="R52" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
@@ -4067,13 +4067,13 @@
         <v>-77.173376000000005</v>
       </c>
       <c r="P53">
-        <v>11.78</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="Q53">
         <v>7</v>
       </c>
       <c r="R53" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
@@ -4084,7 +4084,7 @@
         <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D54" t="s">
         <v>24</v>
@@ -4093,10 +4093,10 @@
         <v>57</v>
       </c>
       <c r="F54" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -4123,13 +4123,13 @@
         <v>-77.159537</v>
       </c>
       <c r="P54">
-        <v>11.78</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="Q54">
         <v>17</v>
       </c>
       <c r="R54" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
@@ -4179,7 +4179,7 @@
         <v>-77.145697999999996</v>
       </c>
       <c r="P55">
-        <v>7.33</v>
+        <v>3.25</v>
       </c>
       <c r="Q55">
         <v>10</v>
@@ -4235,13 +4235,13 @@
         <v>-77.212783000000002</v>
       </c>
       <c r="P56">
-        <v>27.81</v>
+        <v>12.18</v>
       </c>
       <c r="Q56">
         <v>7</v>
       </c>
       <c r="R56" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
@@ -4291,13 +4291,13 @@
         <v>-77.164004000000006</v>
       </c>
       <c r="P57">
-        <v>10.36</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="Q57">
         <v>5</v>
       </c>
       <c r="R57" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
@@ -4308,7 +4308,7 @@
         <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D58" t="s">
         <v>24</v>
@@ -4317,10 +4317,10 @@
         <v>59</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G58" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -4347,13 +4347,13 @@
         <v>-77.158338999999998</v>
       </c>
       <c r="P58">
-        <v>13.02</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="Q58">
         <v>10</v>
       </c>
       <c r="R58" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
@@ -4403,13 +4403,13 @@
         <v>-77.152674000000005</v>
       </c>
       <c r="P59">
-        <v>13.02</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="Q59">
         <v>5</v>
       </c>
       <c r="R59" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
@@ -4459,13 +4459,13 @@
         <v>-77.188659000000001</v>
       </c>
       <c r="P60">
-        <v>19.53</v>
+        <v>11.33</v>
       </c>
       <c r="Q60">
         <v>8</v>
       </c>
       <c r="R60" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
@@ -4476,7 +4476,7 @@
         <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D61" t="s">
         <v>24</v>
@@ -4485,10 +4485,10 @@
         <v>61</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -4515,13 +4515,13 @@
         <v>-77.156407000000002</v>
       </c>
       <c r="P61">
-        <v>28.84</v>
+        <v>18.829999999999998</v>
       </c>
       <c r="Q61">
         <v>13</v>
       </c>
       <c r="R61" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
@@ -4571,7 +4571,7 @@
         <v>-77.124154000000004</v>
       </c>
       <c r="P62">
-        <v>28.84</v>
+        <v>18.829999999999998</v>
       </c>
       <c r="Q62">
         <v>5</v>
@@ -4627,7 +4627,7 @@
         <v>-77.121305000000007</v>
       </c>
       <c r="P63">
-        <v>23.36</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="Q63">
         <v>9</v>
@@ -4644,7 +4644,7 @@
         <v>62</v>
       </c>
       <c r="C64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D64" t="s">
         <v>24</v>
@@ -4653,10 +4653,10 @@
         <v>63</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G64" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -4683,7 +4683,7 @@
         <v>-77.125720000000001</v>
       </c>
       <c r="P64">
-        <v>23.36</v>
+        <v>8.77</v>
       </c>
       <c r="Q64">
         <v>23</v>
@@ -4739,7 +4739,7 @@
         <v>-77.130134999999996</v>
       </c>
       <c r="P65">
-        <v>19.63</v>
+        <v>8.77</v>
       </c>
       <c r="Q65">
         <v>14</v>
@@ -4795,13 +4795,13 @@
         <v>-77.422272000000007</v>
       </c>
       <c r="P66">
-        <v>10.52</v>
+        <v>6.5</v>
       </c>
       <c r="Q66">
         <v>5</v>
       </c>
       <c r="R66" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
@@ -4812,7 +4812,7 @@
         <v>64</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D67" t="s">
         <v>24</v>
@@ -4821,10 +4821,10 @@
         <v>65</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G67" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -4851,13 +4851,13 @@
         <v>-77.334165999999996</v>
       </c>
       <c r="P67">
-        <v>19.66</v>
+        <v>9.69</v>
       </c>
       <c r="Q67">
         <v>13</v>
       </c>
       <c r="R67" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
@@ -4907,13 +4907,13 @@
         <v>-77.246059000000002</v>
       </c>
       <c r="P68">
-        <v>19.66</v>
+        <v>9.69</v>
       </c>
       <c r="Q68">
         <v>8</v>
       </c>
       <c r="R68" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
@@ -4963,13 +4963,13 @@
         <v>-77.125056999999998</v>
       </c>
       <c r="P69">
-        <v>23.25</v>
+        <v>12.43</v>
       </c>
       <c r="Q69">
         <v>6</v>
       </c>
       <c r="R69" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
@@ -5019,13 +5019,13 @@
         <v>-77.157636999999994</v>
       </c>
       <c r="P70">
-        <v>15.75</v>
+        <v>11.6</v>
       </c>
       <c r="Q70">
         <v>5</v>
       </c>
       <c r="R70" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
@@ -5075,13 +5075,13 @@
         <v>-77.242548999999997</v>
       </c>
       <c r="P71">
-        <v>17.75</v>
+        <v>12.15</v>
       </c>
       <c r="Q71">
         <v>4</v>
       </c>
       <c r="R71" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
@@ -5092,7 +5092,7 @@
         <v>66</v>
       </c>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D72" t="s">
         <v>24</v>
@@ -5101,10 +5101,10 @@
         <v>67</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -5131,13 +5131,13 @@
         <v>-77.234540999999993</v>
       </c>
       <c r="P72">
-        <v>17.75</v>
+        <v>12.15</v>
       </c>
       <c r="Q72">
         <v>11</v>
       </c>
       <c r="R72" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
@@ -5187,13 +5187,13 @@
         <v>-77.226533000000003</v>
       </c>
       <c r="P73">
-        <v>16.73</v>
+        <v>7.77</v>
       </c>
       <c r="Q73">
         <v>7</v>
       </c>
       <c r="R73" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
@@ -5243,7 +5243,7 @@
         <v>-77.188044000000005</v>
       </c>
       <c r="P74">
-        <v>20.66</v>
+        <v>14.91</v>
       </c>
       <c r="Q74">
         <v>5</v>
@@ -5260,7 +5260,7 @@
         <v>68</v>
       </c>
       <c r="C75" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D75" t="s">
         <v>24</v>
@@ -5269,10 +5269,10 @@
         <v>69</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G75" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -5299,7 +5299,7 @@
         <v>-77.179265999999998</v>
       </c>
       <c r="P75">
-        <v>22.73</v>
+        <v>16.489999999999998</v>
       </c>
       <c r="Q75">
         <v>10</v>
@@ -5355,7 +5355,7 @@
         <v>-77.170488000000006</v>
       </c>
       <c r="P76">
-        <v>22.73</v>
+        <v>16.489999999999998</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -5411,7 +5411,7 @@
         <v>-77.163238000000007</v>
       </c>
       <c r="P77">
-        <v>17.670000000000002</v>
+        <v>10.78</v>
       </c>
       <c r="Q77">
         <v>9</v>
@@ -5467,7 +5467,7 @@
         <v>-77.280946999999998</v>
       </c>
       <c r="P78">
-        <v>22.76</v>
+        <v>14.44</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -5523,13 +5523,13 @@
         <v>-77.550873999999993</v>
       </c>
       <c r="P79">
-        <v>6.67</v>
+        <v>4.09</v>
       </c>
       <c r="Q79">
         <v>4</v>
       </c>
       <c r="R79" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
@@ -5579,13 +5579,13 @@
         <v>-77.369461999999999</v>
       </c>
       <c r="P80">
-        <v>22.06</v>
+        <v>17.059999999999999</v>
       </c>
       <c r="Q80">
         <v>19</v>
       </c>
       <c r="R80" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
@@ -5635,7 +5635,7 @@
         <v>-77.271928000000003</v>
       </c>
       <c r="P81">
-        <v>22.06</v>
+        <v>17.059999999999999</v>
       </c>
       <c r="Q81">
         <v>7</v>
@@ -5691,13 +5691,13 @@
         <v>-77.285584999999998</v>
       </c>
       <c r="P82">
-        <v>20.36</v>
+        <v>8.67</v>
       </c>
       <c r="Q82">
         <v>8</v>
       </c>
       <c r="R82" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
@@ -5747,13 +5747,13 @@
         <v>-77.160936000000007</v>
       </c>
       <c r="P83">
-        <v>14.03</v>
+        <v>9.33</v>
       </c>
       <c r="Q83">
         <v>7</v>
       </c>
       <c r="R83" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
@@ -5803,7 +5803,7 @@
         <v>-77.283973000000003</v>
       </c>
       <c r="P84">
-        <v>32.200000000000003</v>
+        <v>18.22</v>
       </c>
       <c r="Q84">
         <v>10</v>
@@ -5820,7 +5820,7 @@
         <v>72</v>
       </c>
       <c r="C85" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D85" t="s">
         <v>24</v>
@@ -5829,10 +5829,10 @@
         <v>73</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -5859,7 +5859,7 @@
         <v>-77.282291000000001</v>
       </c>
       <c r="P85">
-        <v>32.200000000000003</v>
+        <v>18.22</v>
       </c>
       <c r="Q85">
         <v>16</v>
@@ -5915,7 +5915,7 @@
         <v>-77.280608000000001</v>
       </c>
       <c r="P86">
-        <v>24.02</v>
+        <v>15.05</v>
       </c>
       <c r="Q86">
         <v>6</v>
@@ -5971,13 +5971,13 @@
         <v>-77.236356999999998</v>
       </c>
       <c r="P87">
-        <v>19.670000000000002</v>
+        <v>10.73</v>
       </c>
       <c r="Q87">
         <v>4</v>
       </c>
       <c r="R87" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
